--- a/PRODUTOS/Saudaveis/Saudaveis - Integrais.xlsx
+++ b/PRODUTOS/Saudaveis/Saudaveis - Integrais.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Aveia Em Flocos Finos Kodilar 500gr</t>
+          <t>Barra De Cereal Nutry Nuts 25g Cranberry</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a957408b-8ad5-4830-ad5c-2d9c5a4a6b7c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bb2e715d-f353-4a1a-8638-a76a5f581a6f.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7891331850241</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pasta Amend Amendo Power Trad 500g</t>
+          <t>Barra De Cereal Nutry Nuts 25g Coco</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 25,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/529a1a83-1539-473b-98f9-648fad73508d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3e068c34-b3fb-4cb2-b4b8-4200658659e5.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7891331850227</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Biscoito Sou Sweet Integral Jasmine Banana/aveia 75g</t>
+          <t>Barra De Cereal Nutry Nuts 25g Classica</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1771d9a2-9c50-4987-813c-1cda1fa6e1f0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d88060d7-6b13-465c-8e18-e8de0fbec631.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7891331850203</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pasta Amend Da Colonia 500g Amen Power</t>
+          <t>Barra De Cereal Nuts Nutry 25g Cacau</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 25,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f0c6ff30-aa4f-45f1-baf9-14a3165e58fe.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9e291852-8863-4384-b1e0-3a237a5d603f.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7891331850258</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Biscoito Sou Sweet Integral Jasmine Cacau/cereais 75g</t>
+          <t>Barra De Cereal Nutry 22g Morango C/chocolate</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 1,49</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/32f2d2a6-2513-44ed-b20e-7ad9168c216d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ccf05b4b-27a9-496c-ae62-25e83df39c92.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7891331010522</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Granola Jasmine Integral 250g Ban/canela</t>
+          <t>Barra De Cereal 22g Avela C/chocolate</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 1,49</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/61ea4509-34c1-4b11-bb94-11919127ad3c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/afcea1db-6b67-410e-be57-52c0030cd30a.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7891331010485</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Barra De Cereal Nutry 22g Morango C/chocolate</t>
+          <t>Barra De Cereal 22g Aveia/banana/mel</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 1,49</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ccf05b4b-27a9-496c-ae62-25e83df39c92.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a4942fdb-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7891331010508</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Pasta Amend Da Colonia 500g Amen Pow Cac</t>
+          <t>Barra De Cereal Nutry Nuts 50g Classica</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 25,99</t>
+          <t>R$ 9,49</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5b6d93c6-3b17-4a77-8570-687bdcbed15e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c6765b72-1178-4b2f-bdc7-e0e6080df997.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7891331850326</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Aveia Flocos Integral Vitalin 200g</t>
+          <t>Pack Barra Nuts 25g Frutas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0b90b6df-2f52-4e7e-9337-1565cc148025.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b9af9b64-433a-4261-b0f9-81281cf865a7.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7896798603997</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Grain Flakes Integ Jasmine 250g Maça/can</t>
+          <t>Barra De Cereal Nutry Nuts 25g Sementes</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5376e33c-832d-44d7-b7f9-d7416e57027b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0e2a6d68-d4b4-42f7-9e29-fce053d6e800.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7891331850210</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Grain Flakes Jasmine 1kg Integral Trad</t>
+          <t>Barra De Cereal Nutry Nuts 50g Cacau</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 34,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b9aeb0ce-8358-4f4e-806f-47f3c7c9f20b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9fb1be53-2b98-4414-82ce-1215a1312493.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7891331850371</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Barra De Cereal 22g Aveia/banana/mel</t>
+          <t>Biscoito Sou Sweet Integral Jasmine Cacau/cereais 75g</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a4942fdb-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/32f2d2a6-2513-44ed-b20e-7ad9168c216d.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7896283007415</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Barra De Cereal 22g Avela C/chocolate</t>
+          <t>Biscoito Sou Sweet Integral Jasmine Banana/aveia 75g</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/afcea1db-6b67-410e-be57-52c0030cd30a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1771d9a2-9c50-4987-813c-1cda1fa6e1f0.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7896283007392</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Farinha Multiuso Integral Vitalin 500g</t>
+          <t>Barra De Cereal Nuts Nutry 50g Cranberry</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/820fd167-157c-40e5-bc74-f68e79cf6fbc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/24b8b1b1-ef5f-44da-a448-f608db51ea7b.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7891331850364</t>
         </is>
       </c>
     </row>
@@ -839,7 +914,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Aveia Flocos Finos Vitalin 200g</t>
+          <t>Mist Bolo Integ Vitalin 300gr Av/lin/coc</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -849,7 +924,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/08cf4f78-bc7c-419d-82c6-14701ed5c0f6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5adce136-c9ee-43f3-b70c-46c8b092d454.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7898568900763</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Barra De Cereal Nutry Nuts 25g Coco</t>
+          <t>Pasta Castanha Caju Dacolonia 200g Coco</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 23,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3e068c34-b3fb-4cb2-b4b8-4200658659e5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3d5316ec-2ccd-44b0-9b7f-34cbdff5c1c1.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7896181712091</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Pasta Castanha Caju Dacolonia 200g Integ</t>
+          <t>Grain Flakes Integ Jasmine 250g Mel /fru</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 28,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/34c76228-4ff8-4a48-863c-75f544ad4b48.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d7e54f22-d04f-4552-8eb9-3962a63ff3da.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7896283001000</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mist Bolo Integ Vitalin 300gr Av/chi/lar</t>
+          <t>Grain Flakes Integ Jasmine 250g Maça/can</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/812dafc6-1261-402e-963a-0199317f50a6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5376e33c-832d-44d7-b7f9-d7416e57027b.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7896283000508</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Barra De Cereal Nutry Nuts 50g Cacau</t>
+          <t>Granola Jasmine Integral 250g Ban/canela</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9fb1be53-2b98-4414-82ce-1215a1312493.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/61ea4509-34c1-4b11-bb94-11919127ad3c.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7896283000492</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Grain Flakes Integ Jasmine 250g Mel /fru</t>
+          <t>Grain Flakes Jasmine 1kg Integral Trad</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 32,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d7e54f22-d04f-4552-8eb9-3962a63ff3da.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b9aeb0ce-8358-4f4e-806f-47f3c7c9f20b.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7896283000409</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Pasta Castanha Caju Dacolonia 200g Cacau</t>
+          <t>Pasta Amend Amendo Power Trad 500g</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 28,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e456ec73-0dfa-4274-8a61-9ae4f90a5ba5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/529a1a83-1539-473b-98f9-648fad73508d.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7896181710202</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mist Bolo Integ Vitalin 300gr Av/lin/coc</t>
+          <t>Pasta Amend Da Colonia 500g Amen Power</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5adce136-c9ee-43f3-b70c-46c8b092d454.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f0c6ff30-aa4f-45f1-baf9-14a3165e58fe.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7896181710202</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mist P/brownie Integr Vitalin 270gr</t>
+          <t>Aveia Em Flocos Finos Kodilar 500gr</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/253e493d-396b-411b-852e-200228a05938.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a957408b-8ad5-4830-ad5c-2d9c5a4a6b7c.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7896256040760</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Barra De Cereal Nutry Nuts 50g Classica</t>
+          <t>Mist Bolo Integ Vitalin 300gr Av/lin/coc</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 9,49</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c6765b72-1178-4b2f-bdc7-e0e6080df997.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ad320a65-6d52-42b1-b740-2db876e95b5d.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7898568900763</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Pasta Castanha Caju Dacolonia 200g Coco</t>
+          <t>Pasta Castanha Caju Dacolonia 200g Integ</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 28,99</t>
+          <t>R$ 23,99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3d5316ec-2ccd-44b0-9b7f-34cbdff5c1c1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/34c76228-4ff8-4a48-863c-75f544ad4b48.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7896181712091</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1266,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mist Bolo Integ Vitalin 300gr Av/lin/coc</t>
+          <t>Aveia Flocos Finos Vitalin 200g</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1146,7 +1276,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ad320a65-6d52-42b1-b740-2db876e95b5d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/08cf4f78-bc7c-419d-82c6-14701ed5c0f6.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7898568900855</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Barra De Cereal Nutry Nuts 25g Cranberry</t>
+          <t>Aveia Flocos Integral Vitalin 200g</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bb2e715d-f353-4a1a-8638-a76a5f581a6f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0b90b6df-2f52-4e7e-9337-1565cc148025.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7898568900855</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Barra De Cereal Nuts Nutry 50g Cranberry</t>
+          <t>Farinha Multiuso Integral Vitalin 500g</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/24b8b1b1-ef5f-44da-a448-f608db51ea7b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/820fd167-157c-40e5-bc74-f68e79cf6fbc.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7898568901401</t>
         </is>
       </c>
     </row>
@@ -1217,98 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Barra De Cereal Nuts Nutry 25g Cacau</t>
+          <t>Mist Bolo Integ Vitalin 300gr Av/chi/lar</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9e291852-8863-4384-b1e0-3a237a5d603f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Integrais</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Barra De Cereal Nutry Nuts 25g Classica</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d88060d7-6b13-465c-8e18-e8de0fbec631.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Integrais</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Barra De Cereal Nutry Nuts 25g Sementes</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0e2a6d68-d4b4-42f7-9e29-fce053d6e800.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Integrais</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Pack Barra Nuts 25g Frutas</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b9af9b64-433a-4261-b0f9-81281cf865a7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/812dafc6-1261-402e-963a-0199317f50a6.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7898568900763</t>
         </is>
       </c>
     </row>
